--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H2">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I2">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J2">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.832948</v>
+        <v>5.915276</v>
       </c>
       <c r="N2">
-        <v>9.665896</v>
+        <v>11.830552</v>
       </c>
       <c r="O2">
-        <v>0.1595776081975808</v>
+        <v>0.201894750425077</v>
       </c>
       <c r="P2">
-        <v>0.1202728907524544</v>
+        <v>0.1594845376709774</v>
       </c>
       <c r="Q2">
-        <v>30.079794723096</v>
+        <v>34.467192307198</v>
       </c>
       <c r="R2">
-        <v>120.319178892384</v>
+        <v>137.868769228792</v>
       </c>
       <c r="S2">
-        <v>0.02511113280129935</v>
+        <v>0.02290040994104486</v>
       </c>
       <c r="T2">
-        <v>0.01339210962289125</v>
+        <v>0.0126501830504342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H3">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I3">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J3">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>27.936577</v>
       </c>
       <c r="O3">
-        <v>0.3074763849371404</v>
+        <v>0.3178351689842788</v>
       </c>
       <c r="P3">
-        <v>0.3476152519661426</v>
+        <v>0.3766055943082503</v>
       </c>
       <c r="Q3">
-        <v>57.958172487818</v>
+        <v>54.26038006588617</v>
       </c>
       <c r="R3">
-        <v>347.749034926908</v>
+        <v>325.562280395317</v>
       </c>
       <c r="S3">
-        <v>0.04838448465689577</v>
+        <v>0.03605123782612822</v>
       </c>
       <c r="T3">
-        <v>0.03870615840190526</v>
+        <v>0.02987204763163629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H4">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I4">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J4">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.420762333333334</v>
+        <v>2.926033666666667</v>
       </c>
       <c r="N4">
-        <v>7.262287000000001</v>
+        <v>8.778100999999999</v>
       </c>
       <c r="O4">
-        <v>0.07993039924454561</v>
+        <v>0.09986868522568339</v>
       </c>
       <c r="P4">
-        <v>0.09036474745475946</v>
+        <v>0.1183352543156181</v>
       </c>
       <c r="Q4">
-        <v>15.066587527958</v>
+        <v>17.04944369228684</v>
       </c>
       <c r="R4">
-        <v>90.39952516774801</v>
+        <v>102.296662153721</v>
       </c>
       <c r="S4">
-        <v>0.01257784781311875</v>
+        <v>0.0113278518987052</v>
       </c>
       <c r="T4">
-        <v>0.01006190668892962</v>
+        <v>0.009386255559774346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H5">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I5">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J5">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.6583135</v>
+        <v>7.801223999999999</v>
       </c>
       <c r="N5">
-        <v>11.316627</v>
+        <v>15.602448</v>
       </c>
       <c r="O5">
-        <v>0.1868300951638797</v>
+        <v>0.2662641899532872</v>
       </c>
       <c r="P5">
-        <v>0.1408129616599719</v>
+        <v>0.2103324684947469</v>
       </c>
       <c r="Q5">
-        <v>35.216788709277</v>
+        <v>45.456253916052</v>
       </c>
       <c r="R5">
-        <v>140.867154837108</v>
+        <v>181.825015664208</v>
       </c>
       <c r="S5">
-        <v>0.02939958421441426</v>
+        <v>0.03020167235508838</v>
       </c>
       <c r="T5">
-        <v>0.0156791992532685</v>
+        <v>0.01668339932362252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H6">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I6">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J6">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.072968666666667</v>
+        <v>2.108106666666667</v>
       </c>
       <c r="N6">
-        <v>15.218906</v>
+        <v>6.32432</v>
       </c>
       <c r="O6">
-        <v>0.1675027760050258</v>
+        <v>0.0719519544542144</v>
       </c>
       <c r="P6">
-        <v>0.1893690785323857</v>
+        <v>0.08525648264622948</v>
       </c>
       <c r="Q6">
-        <v>31.573659830404</v>
+        <v>12.28353806045333</v>
       </c>
       <c r="R6">
-        <v>189.441958982424</v>
+        <v>73.70122836272</v>
       </c>
       <c r="S6">
-        <v>0.02635823722611897</v>
+        <v>0.008161327868068417</v>
       </c>
       <c r="T6">
-        <v>0.0210858111335439</v>
+        <v>0.006762474453391697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H7">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I7">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J7">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.988693333333333</v>
+        <v>1.235977666666667</v>
       </c>
       <c r="N7">
-        <v>8.96608</v>
+        <v>3.707933</v>
       </c>
       <c r="O7">
-        <v>0.09868273645182783</v>
+        <v>0.04218525095745924</v>
       </c>
       <c r="P7">
-        <v>0.111565069634286</v>
+        <v>0.04998566256417791</v>
       </c>
       <c r="Q7">
-        <v>18.60133441472</v>
+        <v>7.201807645898834</v>
       </c>
       <c r="R7">
-        <v>111.60800648832</v>
+        <v>43.21084587539301</v>
       </c>
       <c r="S7">
-        <v>0.01552871564016236</v>
+        <v>0.004784966119018414</v>
       </c>
       <c r="T7">
-        <v>0.01242251377912744</v>
+        <v>0.003964821860277157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.484879</v>
       </c>
       <c r="I8">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J8">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.832948</v>
+        <v>5.915276</v>
       </c>
       <c r="N8">
-        <v>9.665896</v>
+        <v>11.830552</v>
       </c>
       <c r="O8">
-        <v>0.1595776081975808</v>
+        <v>0.201894750425077</v>
       </c>
       <c r="P8">
-        <v>0.1202728907524544</v>
+        <v>0.1594845376709774</v>
       </c>
       <c r="Q8">
-        <v>4.003096997764001</v>
+        <v>4.899581703868001</v>
       </c>
       <c r="R8">
-        <v>24.018581986584</v>
+        <v>29.39749022320801</v>
       </c>
       <c r="S8">
-        <v>0.003341854598833119</v>
+        <v>0.003255339992831047</v>
       </c>
       <c r="T8">
-        <v>0.002673384957509003</v>
+        <v>0.002697373992871391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.484879</v>
       </c>
       <c r="I9">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J9">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>27.936577</v>
       </c>
       <c r="O9">
-        <v>0.3074763849371404</v>
+        <v>0.3178351689842788</v>
       </c>
       <c r="P9">
-        <v>0.3476152519661426</v>
+        <v>0.3766055943082503</v>
       </c>
       <c r="Q9">
         <v>7.713223724353668</v>
@@ -1013,10 +1013,10 @@
         <v>69.41901351918301</v>
       </c>
       <c r="S9">
-        <v>0.006439132548988428</v>
+        <v>0.005124757006035673</v>
       </c>
       <c r="T9">
-        <v>0.007726673731653227</v>
+        <v>0.006369558770347239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.484879</v>
       </c>
       <c r="I10">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J10">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.420762333333334</v>
+        <v>2.926033666666667</v>
       </c>
       <c r="N10">
-        <v>7.262287000000001</v>
+        <v>8.778100999999999</v>
       </c>
       <c r="O10">
-        <v>0.07993039924454561</v>
+        <v>0.09986868522568339</v>
       </c>
       <c r="P10">
-        <v>0.09036474745475946</v>
+        <v>0.1183352543156181</v>
       </c>
       <c r="Q10">
-        <v>2.005100495363667</v>
+        <v>2.423613203864333</v>
       </c>
       <c r="R10">
-        <v>18.045904458273</v>
+        <v>21.812518834779</v>
       </c>
       <c r="S10">
-        <v>0.001673892567503725</v>
+        <v>0.001610277257641075</v>
       </c>
       <c r="T10">
-        <v>0.002008596908441099</v>
+        <v>0.002001413065442623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.484879</v>
       </c>
       <c r="I11">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J11">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.6583135</v>
+        <v>7.801223999999999</v>
       </c>
       <c r="N11">
-        <v>11.316627</v>
+        <v>15.602448</v>
       </c>
       <c r="O11">
-        <v>0.1868300951638797</v>
+        <v>0.2662641899532872</v>
       </c>
       <c r="P11">
-        <v>0.1408129616599719</v>
+        <v>0.2103324684947469</v>
       </c>
       <c r="Q11">
-        <v>4.6867414638555</v>
+        <v>6.461699230632</v>
       </c>
       <c r="R11">
-        <v>28.120448783133</v>
+        <v>38.770195383792</v>
       </c>
       <c r="S11">
-        <v>0.00391257282131207</v>
+        <v>0.004293229340479361</v>
       </c>
       <c r="T11">
-        <v>0.003129942675934051</v>
+        <v>0.003557368875123346</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.484879</v>
       </c>
       <c r="I12">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J12">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.072968666666667</v>
+        <v>2.108106666666667</v>
       </c>
       <c r="N12">
-        <v>15.218906</v>
+        <v>6.32432</v>
       </c>
       <c r="O12">
-        <v>0.1675027760050258</v>
+        <v>0.0719519544542144</v>
       </c>
       <c r="P12">
-        <v>0.1893690785323857</v>
+        <v>0.08525648264622948</v>
       </c>
       <c r="Q12">
-        <v>4.201904435819334</v>
+        <v>1.746129995253333</v>
       </c>
       <c r="R12">
-        <v>37.817139922374</v>
+        <v>15.71516995728</v>
       </c>
       <c r="S12">
-        <v>0.00350782248607606</v>
+        <v>0.001160149406579465</v>
       </c>
       <c r="T12">
-        <v>0.004209231546681603</v>
+        <v>0.001441949309769857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.484879</v>
       </c>
       <c r="I13">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J13">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.988693333333333</v>
+        <v>1.235977666666667</v>
       </c>
       <c r="N13">
-        <v>8.96608</v>
+        <v>3.707933</v>
       </c>
       <c r="O13">
-        <v>0.09868273645182783</v>
+        <v>0.04218525095745924</v>
       </c>
       <c r="P13">
-        <v>0.111565069634286</v>
+        <v>0.04998566256417791</v>
       </c>
       <c r="Q13">
-        <v>2.475513767146667</v>
+        <v>1.023751649456333</v>
       </c>
       <c r="R13">
-        <v>22.27962390432</v>
+        <v>9.213764845107001</v>
       </c>
       <c r="S13">
-        <v>0.00206660170159122</v>
+        <v>0.0006801926957501225</v>
       </c>
       <c r="T13">
-        <v>0.002479830467845125</v>
+        <v>0.0008454112742591889</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H14">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I14">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J14">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.832948</v>
+        <v>5.915276</v>
       </c>
       <c r="N14">
-        <v>9.665896</v>
+        <v>11.830552</v>
       </c>
       <c r="O14">
-        <v>0.1595776081975808</v>
+        <v>0.201894750425077</v>
       </c>
       <c r="P14">
-        <v>0.1202728907524544</v>
+        <v>0.1594845376709774</v>
       </c>
       <c r="Q14">
-        <v>51.98147299146001</v>
+        <v>63.38894547222668</v>
       </c>
       <c r="R14">
-        <v>311.8888379487601</v>
+        <v>380.3336728333601</v>
       </c>
       <c r="S14">
-        <v>0.04339503256295351</v>
+        <v>0.04211636457377983</v>
       </c>
       <c r="T14">
-        <v>0.03471474411990313</v>
+        <v>0.03489761030361898</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H15">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I15">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J15">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>27.936577</v>
       </c>
       <c r="O15">
-        <v>0.3074763849371404</v>
+        <v>0.3178351689842788</v>
       </c>
       <c r="P15">
-        <v>0.3476152519661426</v>
+        <v>0.3766055943082503</v>
       </c>
       <c r="Q15">
-        <v>100.158634909055</v>
+        <v>99.79078779156779</v>
       </c>
       <c r="R15">
-        <v>901.427714181495</v>
+        <v>898.1170901241102</v>
       </c>
       <c r="S15">
-        <v>0.08361416045392711</v>
+        <v>0.06630217884876785</v>
       </c>
       <c r="T15">
-        <v>0.1003332874821921</v>
+        <v>0.08240695593604126</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H16">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I16">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J16">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.420762333333334</v>
+        <v>2.926033666666667</v>
       </c>
       <c r="N16">
-        <v>7.262287000000001</v>
+        <v>8.778100999999999</v>
       </c>
       <c r="O16">
-        <v>0.07993039924454561</v>
+        <v>0.09986868522568339</v>
       </c>
       <c r="P16">
-        <v>0.09036474745475946</v>
+        <v>0.1183352543156181</v>
       </c>
       <c r="Q16">
-        <v>26.03686028670501</v>
+        <v>31.35579617015889</v>
       </c>
       <c r="R16">
-        <v>234.331742580345</v>
+        <v>282.20216553143</v>
       </c>
       <c r="S16">
-        <v>0.02173602121979614</v>
+        <v>0.02083316157360825</v>
       </c>
       <c r="T16">
-        <v>0.02608226230970196</v>
+        <v>0.02589352955836786</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H17">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I17">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J17">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.6583135</v>
+        <v>7.801223999999999</v>
       </c>
       <c r="N17">
-        <v>11.316627</v>
+        <v>15.602448</v>
       </c>
       <c r="O17">
-        <v>0.1868300951638797</v>
+        <v>0.2662641899532872</v>
       </c>
       <c r="P17">
-        <v>0.1408129616599719</v>
+        <v>0.2103324684947469</v>
       </c>
       <c r="Q17">
-        <v>60.85881130470751</v>
+        <v>83.59903455944001</v>
       </c>
       <c r="R17">
-        <v>365.1528678282451</v>
+        <v>501.59420735664</v>
       </c>
       <c r="S17">
-        <v>0.0508059881016513</v>
+        <v>0.05554418662894529</v>
       </c>
       <c r="T17">
-        <v>0.04064328962419903</v>
+        <v>0.04602390066722831</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H18">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I18">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J18">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.072968666666667</v>
+        <v>2.108106666666667</v>
       </c>
       <c r="N18">
-        <v>15.218906</v>
+        <v>6.32432</v>
       </c>
       <c r="O18">
-        <v>0.1675027760050258</v>
+        <v>0.0719519544542144</v>
       </c>
       <c r="P18">
-        <v>0.1893690785323857</v>
+        <v>0.08525648264622948</v>
       </c>
       <c r="Q18">
-        <v>54.56305007479001</v>
+        <v>22.59077320195556</v>
       </c>
       <c r="R18">
-        <v>491.06745067311</v>
+        <v>203.3169588176</v>
       </c>
       <c r="S18">
-        <v>0.04555017775503541</v>
+        <v>0.01500957671860942</v>
       </c>
       <c r="T18">
-        <v>0.05465819491280047</v>
+        <v>0.01865539788805996</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.755645</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H19">
-        <v>32.266935</v>
+        <v>32.14843</v>
       </c>
       <c r="I19">
-        <v>0.2719368528774038</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J19">
-        <v>0.288633156671631</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.988693333333333</v>
+        <v>1.235977666666667</v>
       </c>
       <c r="N19">
-        <v>8.96608</v>
+        <v>3.707933</v>
       </c>
       <c r="O19">
-        <v>0.09868273645182783</v>
+        <v>0.04218525095745924</v>
       </c>
       <c r="P19">
-        <v>0.111565069634286</v>
+        <v>0.04998566256417791</v>
       </c>
       <c r="Q19">
-        <v>32.1453245072</v>
+        <v>13.24491383279889</v>
       </c>
       <c r="R19">
-        <v>289.3079205648</v>
+        <v>119.20422449519</v>
       </c>
       <c r="S19">
-        <v>0.02683547278404031</v>
+        <v>0.008800077293837694</v>
       </c>
       <c r="T19">
-        <v>0.03220137822283429</v>
+        <v>0.01093761312793594</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H20">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I20">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J20">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.832948</v>
+        <v>5.915276</v>
       </c>
       <c r="N20">
-        <v>9.665896</v>
+        <v>11.830552</v>
       </c>
       <c r="O20">
-        <v>0.1595776081975808</v>
+        <v>0.201894750425077</v>
       </c>
       <c r="P20">
-        <v>0.1202728907524544</v>
+        <v>0.1594845376709774</v>
       </c>
       <c r="Q20">
-        <v>3.092528514506</v>
+        <v>8.066655965924001</v>
       </c>
       <c r="R20">
-        <v>12.370114058024</v>
+        <v>32.266623863696</v>
       </c>
       <c r="S20">
-        <v>0.002581696282652433</v>
+        <v>0.005359581564595749</v>
       </c>
       <c r="T20">
-        <v>0.001376853840241855</v>
+        <v>0.002960632060317402</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H21">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I21">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J21">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>27.936577</v>
       </c>
       <c r="O21">
-        <v>0.3074763849371404</v>
+        <v>0.3178351689842788</v>
       </c>
       <c r="P21">
-        <v>0.3476152519661426</v>
+        <v>0.3766055943082503</v>
       </c>
       <c r="Q21">
-        <v>5.958727535118834</v>
+        <v>12.69902737277433</v>
       </c>
       <c r="R21">
-        <v>35.752365210713</v>
+        <v>76.194164236646</v>
       </c>
       <c r="S21">
-        <v>0.004974448789912732</v>
+        <v>0.008437383877895673</v>
       </c>
       <c r="T21">
-        <v>0.003979412081990358</v>
+        <v>0.006991214401637872</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H22">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I22">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J22">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.420762333333334</v>
+        <v>2.926033666666667</v>
       </c>
       <c r="N22">
-        <v>7.262287000000001</v>
+        <v>8.778100999999999</v>
       </c>
       <c r="O22">
-        <v>0.07993039924454561</v>
+        <v>0.09986868522568339</v>
       </c>
       <c r="P22">
-        <v>0.09036474745475946</v>
+        <v>0.1183352543156181</v>
       </c>
       <c r="Q22">
-        <v>1.549008295283834</v>
+        <v>3.990229185199667</v>
       </c>
       <c r="R22">
-        <v>9.294049771703001</v>
+        <v>23.941375111198</v>
       </c>
       <c r="S22">
-        <v>0.001293138911726693</v>
+        <v>0.002651155431674392</v>
       </c>
       <c r="T22">
-        <v>0.00103447292883024</v>
+        <v>0.002196746800090498</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H23">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I23">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J23">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.6583135</v>
+        <v>7.801223999999999</v>
       </c>
       <c r="N23">
-        <v>11.316627</v>
+        <v>15.602448</v>
       </c>
       <c r="O23">
-        <v>0.1868300951638797</v>
+        <v>0.2662641899532872</v>
       </c>
       <c r="P23">
-        <v>0.1408129616599719</v>
+        <v>0.2103324684947469</v>
       </c>
       <c r="Q23">
-        <v>3.62066710479075</v>
+        <v>10.638521367576</v>
       </c>
       <c r="R23">
-        <v>14.482668419163</v>
+        <v>42.554085470304</v>
       </c>
       <c r="S23">
-        <v>0.003022595510862537</v>
+        <v>0.007068359334658586</v>
       </c>
       <c r="T23">
-        <v>0.001611991412232726</v>
+        <v>0.003904560646725117</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H24">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I24">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J24">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.072968666666667</v>
+        <v>2.108106666666667</v>
       </c>
       <c r="N24">
-        <v>15.218906</v>
+        <v>6.32432</v>
       </c>
       <c r="O24">
-        <v>0.1675027760050258</v>
+        <v>0.0719519544542144</v>
       </c>
       <c r="P24">
-        <v>0.1893690785323857</v>
+        <v>0.08525648264622948</v>
       </c>
       <c r="Q24">
-        <v>3.246114018785667</v>
+        <v>2.874822953226666</v>
       </c>
       <c r="R24">
-        <v>19.476684112714</v>
+        <v>17.24893771936</v>
       </c>
       <c r="S24">
-        <v>0.002709912117561704</v>
+        <v>0.001910066348022993</v>
       </c>
       <c r="T24">
-        <v>0.002167849640672712</v>
+        <v>0.001582680550468529</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6398845000000001</v>
+        <v>1.363699</v>
       </c>
       <c r="H25">
-        <v>1.279769</v>
+        <v>2.727398</v>
       </c>
       <c r="I25">
-        <v>0.01617831168052042</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J25">
-        <v>0.01144774879549287</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.988693333333333</v>
+        <v>1.235977666666667</v>
       </c>
       <c r="N25">
-        <v>8.96608</v>
+        <v>3.707933</v>
       </c>
       <c r="O25">
-        <v>0.09868273645182783</v>
+        <v>0.04218525095745924</v>
       </c>
       <c r="P25">
-        <v>0.111565069634286</v>
+        <v>0.04998566256417791</v>
       </c>
       <c r="Q25">
-        <v>1.912418539253334</v>
+        <v>1.685501508055667</v>
       </c>
       <c r="R25">
-        <v>11.47451123552</v>
+        <v>10.113009048334</v>
       </c>
       <c r="S25">
-        <v>0.001596520067804325</v>
+        <v>0.001119867123109511</v>
       </c>
       <c r="T25">
-        <v>0.001277168891524975</v>
+        <v>0.000927921648737006</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H26">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I26">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J26">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.832948</v>
+        <v>5.915276</v>
       </c>
       <c r="N26">
-        <v>9.665896</v>
+        <v>11.830552</v>
       </c>
       <c r="O26">
-        <v>0.1595776081975808</v>
+        <v>0.201894750425077</v>
       </c>
       <c r="P26">
-        <v>0.1202728907524544</v>
+        <v>0.1594845376709774</v>
       </c>
       <c r="Q26">
-        <v>22.42571159803867</v>
+        <v>155.4078977677653</v>
       </c>
       <c r="R26">
-        <v>134.554269588232</v>
+        <v>932.4473866065921</v>
       </c>
       <c r="S26">
-        <v>0.01872137184731515</v>
+        <v>0.1032548440626708</v>
       </c>
       <c r="T26">
-        <v>0.01497654443075432</v>
+        <v>0.085556940788364</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H27">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I27">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J27">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>27.936577</v>
       </c>
       <c r="O27">
-        <v>0.3074763849371404</v>
+        <v>0.3178351689842788</v>
       </c>
       <c r="P27">
-        <v>0.3476152519661426</v>
+        <v>0.3766055943082503</v>
       </c>
       <c r="Q27">
-        <v>43.21017722781211</v>
+        <v>244.6526982227769</v>
       </c>
       <c r="R27">
-        <v>388.891595050309</v>
+        <v>2201.874284004992</v>
       </c>
       <c r="S27">
-        <v>0.03607260317844319</v>
+        <v>0.1625501442806611</v>
       </c>
       <c r="T27">
-        <v>0.04328552538571583</v>
+        <v>0.2020335200097655</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H28">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I28">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J28">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.420762333333334</v>
+        <v>2.926033666666667</v>
       </c>
       <c r="N28">
-        <v>7.262287000000001</v>
+        <v>8.778100999999999</v>
       </c>
       <c r="O28">
-        <v>0.07993039924454561</v>
+        <v>0.09986868522568339</v>
       </c>
       <c r="P28">
-        <v>0.09036474745475946</v>
+        <v>0.1183352543156181</v>
       </c>
       <c r="Q28">
-        <v>11.23275440470878</v>
+        <v>76.87363039938845</v>
       </c>
       <c r="R28">
-        <v>101.094789642379</v>
+        <v>691.862673594496</v>
       </c>
       <c r="S28">
-        <v>0.00937729762379144</v>
+        <v>0.05107574861659736</v>
       </c>
       <c r="T28">
-        <v>0.01125234162713829</v>
+        <v>0.06348203088843857</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H29">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I29">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J29">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.6583135</v>
+        <v>7.801223999999999</v>
       </c>
       <c r="N29">
-        <v>11.316627</v>
+        <v>15.602448</v>
       </c>
       <c r="O29">
-        <v>0.1868300951638797</v>
+        <v>0.2662641899532872</v>
       </c>
       <c r="P29">
-        <v>0.1408129616599719</v>
+        <v>0.2103324684947469</v>
       </c>
       <c r="Q29">
-        <v>26.2555497560265</v>
+        <v>204.956086893568</v>
       </c>
       <c r="R29">
-        <v>157.533298536159</v>
+        <v>1229.736521361408</v>
       </c>
       <c r="S29">
-        <v>0.02191858697055777</v>
+        <v>0.1361752465342217</v>
       </c>
       <c r="T29">
-        <v>0.01753422208057834</v>
+        <v>0.1128347789426502</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H30">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I30">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J30">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.072968666666667</v>
+        <v>2.108106666666667</v>
       </c>
       <c r="N30">
-        <v>15.218906</v>
+        <v>6.32432</v>
       </c>
       <c r="O30">
-        <v>0.1675027760050258</v>
+        <v>0.0719519544542144</v>
       </c>
       <c r="P30">
-        <v>0.1893690785323857</v>
+        <v>0.08525648264622948</v>
       </c>
       <c r="Q30">
-        <v>23.53944885493356</v>
+        <v>55.38480796785777</v>
       </c>
       <c r="R30">
-        <v>211.855039694402</v>
+        <v>498.46327171072</v>
       </c>
       <c r="S30">
-        <v>0.01965113896910234</v>
+        <v>0.03679832101395495</v>
       </c>
       <c r="T30">
-        <v>0.0235804959929709</v>
+        <v>0.04573662089196397</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.640172333333333</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H31">
-        <v>13.920517</v>
+        <v>78.816896</v>
       </c>
       <c r="I31">
-        <v>0.1173182883160857</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J31">
-        <v>0.1245213641832143</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.988693333333333</v>
+        <v>1.235977666666667</v>
       </c>
       <c r="N31">
-        <v>8.96608</v>
+        <v>3.707933</v>
       </c>
       <c r="O31">
-        <v>0.09868273645182783</v>
+        <v>0.04218525095745924</v>
       </c>
       <c r="P31">
-        <v>0.111565069634286</v>
+        <v>0.04998566256417791</v>
       </c>
       <c r="Q31">
-        <v>13.86805211815111</v>
+        <v>32.47197440399645</v>
       </c>
       <c r="R31">
-        <v>124.81246906336</v>
+        <v>292.247769635968</v>
       </c>
       <c r="S31">
-        <v>0.01157728972687584</v>
+        <v>0.02157476358442284</v>
       </c>
       <c r="T31">
-        <v>0.01389223466605658</v>
+        <v>0.02681526644980056</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H32">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I32">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J32">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.832948</v>
+        <v>5.915276</v>
       </c>
       <c r="N32">
-        <v>9.665896</v>
+        <v>11.830552</v>
       </c>
       <c r="O32">
-        <v>0.1595776081975808</v>
+        <v>0.201894750425077</v>
       </c>
       <c r="P32">
-        <v>0.1202728907524544</v>
+        <v>0.1594845376709774</v>
       </c>
       <c r="Q32">
-        <v>79.57012950090402</v>
+        <v>37.639622851672</v>
       </c>
       <c r="R32">
-        <v>477.420777005424</v>
+        <v>225.837737110032</v>
       </c>
       <c r="S32">
-        <v>0.06642652010452724</v>
+        <v>0.02500821029015467</v>
       </c>
       <c r="T32">
-        <v>0.05313925378115481</v>
+        <v>0.02072179747537138</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H33">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I33">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J33">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>27.936577</v>
       </c>
       <c r="O33">
-        <v>0.3074763849371404</v>
+        <v>0.3178351689842788</v>
       </c>
       <c r="P33">
-        <v>0.3476152519661426</v>
+        <v>0.3766055943082503</v>
       </c>
       <c r="Q33">
-        <v>153.3168471708487</v>
+        <v>59.25461590446466</v>
       </c>
       <c r="R33">
-        <v>1379.851624537638</v>
+        <v>533.2915431401819</v>
       </c>
       <c r="S33">
-        <v>0.1279915553089731</v>
+        <v>0.03936946714479021</v>
       </c>
       <c r="T33">
-        <v>0.1535841948826857</v>
+        <v>0.04893229755882212</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H34">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I34">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J34">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.420762333333334</v>
+        <v>2.926033666666667</v>
       </c>
       <c r="N34">
-        <v>7.262287000000001</v>
+        <v>8.778100999999999</v>
       </c>
       <c r="O34">
-        <v>0.07993039924454561</v>
+        <v>0.09986868522568339</v>
       </c>
       <c r="P34">
-        <v>0.09036474745475946</v>
+        <v>0.1183352543156181</v>
       </c>
       <c r="Q34">
-        <v>39.85566829070868</v>
+        <v>18.61870919710733</v>
       </c>
       <c r="R34">
-        <v>358.7010146163781</v>
+        <v>167.568382773966</v>
       </c>
       <c r="S34">
-        <v>0.03327220110860885</v>
+        <v>0.01237049044745711</v>
       </c>
       <c r="T34">
-        <v>0.03992516699171825</v>
+        <v>0.01537527844350416</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H35">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I35">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J35">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.6583135</v>
+        <v>7.801223999999999</v>
       </c>
       <c r="N35">
-        <v>11.316627</v>
+        <v>15.602448</v>
       </c>
       <c r="O35">
-        <v>0.1868300951638797</v>
+        <v>0.2662641899532872</v>
       </c>
       <c r="P35">
-        <v>0.1408129616599719</v>
+        <v>0.2103324684947469</v>
       </c>
       <c r="Q35">
-        <v>93.15902797872302</v>
+        <v>49.640140061328</v>
       </c>
       <c r="R35">
-        <v>558.9541678723381</v>
+        <v>297.8408403679679</v>
       </c>
       <c r="S35">
-        <v>0.07777076754508178</v>
+        <v>0.03298149575989379</v>
       </c>
       <c r="T35">
-        <v>0.06221431661375921</v>
+        <v>0.02732846003939742</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H36">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I36">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J36">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.072968666666667</v>
+        <v>2.108106666666667</v>
       </c>
       <c r="N36">
-        <v>15.218906</v>
+        <v>6.32432</v>
       </c>
       <c r="O36">
-        <v>0.1675027760050258</v>
+        <v>0.0719519544542144</v>
       </c>
       <c r="P36">
-        <v>0.1893690785323857</v>
+        <v>0.08525648264622948</v>
       </c>
       <c r="Q36">
-        <v>83.52185327892936</v>
+        <v>13.41413990901333</v>
       </c>
       <c r="R36">
-        <v>751.6966795103641</v>
+        <v>120.72725918112</v>
       </c>
       <c r="S36">
-        <v>0.0697254874511313</v>
+        <v>0.008912513098979148</v>
       </c>
       <c r="T36">
-        <v>0.08366749530571607</v>
+        <v>0.01107735955257546</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>16.464098</v>
+        <v>6.363122</v>
       </c>
       <c r="H37">
-        <v>49.39229400000001</v>
+        <v>19.089366</v>
       </c>
       <c r="I37">
-        <v>0.416264668049676</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J37">
-        <v>0.4418223711819317</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.988693333333333</v>
+        <v>1.235977666666667</v>
       </c>
       <c r="N37">
-        <v>8.96608</v>
+        <v>3.707933</v>
       </c>
       <c r="O37">
-        <v>0.09868273645182783</v>
+        <v>0.04218525095745924</v>
       </c>
       <c r="P37">
-        <v>0.111565069634286</v>
+        <v>0.04998566256417791</v>
       </c>
       <c r="Q37">
-        <v>49.20613993194668</v>
+        <v>7.864676682275332</v>
       </c>
       <c r="R37">
-        <v>442.8552593875201</v>
+        <v>70.78209014047799</v>
       </c>
       <c r="S37">
-        <v>0.04107813653135378</v>
+        <v>0.005225384141320656</v>
       </c>
       <c r="T37">
-        <v>0.04929194360689754</v>
+        <v>0.006494628203168054</v>
       </c>
     </row>
   </sheetData>
